--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/en/ExportSuppliers.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/en/ExportSuppliers.xlsx
@@ -8,14 +8,14 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Fournisseurs" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Usines" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Suppliers" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Factories" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Contacts" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Contacts!$B$3:$I$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Fournisseurs!$B$3:$M$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Usines!$B$3:$M$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Factories!$B$3:$M$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Suppliers!$B$3:$M$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t xml:space="preserve">TYPE</t>
   </si>
@@ -143,40 +143,31 @@
     <t xml:space="preserve">bcpg:plantApprovalNumbers</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Téléphone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adresse 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adresse 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adresse 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code postal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code emballeur</t>
+    <t xml:space="preserve">Address 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packager Code</t>
   </si>
   <si>
     <t xml:space="preserve">Certifications</t>
   </si>
   <si>
-    <t xml:space="preserve">N° d'agréments</t>
+    <t xml:space="preserve">Agreement number</t>
   </si>
   <si>
     <t xml:space="preserve">bcpg:contactList</t>
@@ -206,19 +197,19 @@
     <t xml:space="preserve">bcpg:contactListNotes</t>
   </si>
   <si>
-    <t xml:space="preserve">Prénom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intitulé de poste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Téléphone (Bureau)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Téléphone (mobile)</t>
+    <t xml:space="preserve">First name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile phone</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -270,7 +261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF006600"/>
+        <fgColor rgb="FF004254"/>
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
@@ -342,7 +333,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -381,7 +372,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004254"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -413,15 +404,15 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="24.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="0" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="14" style="0" width="15.66"/>
   </cols>
@@ -537,10 +528,10 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="1" sqref="B3:C3 K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="20.11"/>
@@ -600,40 +591,40 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -657,10 +648,10 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="1" sqref="B3:C3 I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="0" width="19.84"/>
@@ -672,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="66.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -680,28 +671,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,28 +700,28 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
